--- a/0708.xlsx
+++ b/0708.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773ED769-20C0-46B1-870B-14B158C608B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBE012A-D307-421C-85E4-7A25DB469B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="658" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="658" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="场景汇总表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="217">
   <si>
     <t>序号</t>
   </si>
@@ -416,10 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加减速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>纵向动作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -437,10 +433,6 @@
   </si>
   <si>
     <t>横向动作类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多项式/正弦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -868,6 +860,10 @@
   </si>
   <si>
     <t>[10, 10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_red</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1869,7 +1865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2079,6 +2075,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3482,13 +3481,13 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="5">
         <f>SUM(F2:F28)</f>
         <v>0</v>
@@ -3554,21 +3553,21 @@
         <v>68</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="23" t="s">
@@ -3595,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3630,184 +3629,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="82"/>
     </row>
     <row r="2" spans="1:37" s="27" customFormat="1" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="87" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
       <c r="Q2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="82" t="s">
+      <c r="R2" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
       <c r="AK2" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="27" customFormat="1" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="86" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
       <c r="Q3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="86" t="s">
+      <c r="R3" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="71" t="s">
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="87"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="88"/>
       <c r="AH3" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI3" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ3" s="43" t="s">
         <v>89</v>
       </c>
       <c r="AK3" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="27" customFormat="1" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>163</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>80</v>
@@ -3828,7 +3827,7 @@
         <v>85</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P4" s="36" t="s">
         <v>88</v>
@@ -3855,13 +3854,13 @@
         <v>100</v>
       </c>
       <c r="X4" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y4" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" s="35" t="s">
-        <v>174</v>
-      </c>
       <c r="Z4" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA4" s="35" t="s">
         <v>104</v>
@@ -3870,42 +3869,42 @@
         <v>97</v>
       </c>
       <c r="AC4" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AE4" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AE4" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="AF4" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG4" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="AH4" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI4" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ4" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="AI4" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" s="36" t="s">
-        <v>118</v>
-      </c>
       <c r="AK4" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="27" customFormat="1" ht="25.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="45">
         <v>1</v>
@@ -3915,31 +3914,31 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L5" s="45">
         <v>-1</v>
       </c>
       <c r="M5" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O5" s="45">
         <v>1</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R5" s="45">
         <v>0</v>
@@ -3951,14 +3950,14 @@
         <v>0</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V5" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y5" s="45">
         <v>-20</v>
@@ -3968,18 +3967,18 @@
       </c>
       <c r="AA5" s="45"/>
       <c r="AB5" s="45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
       <c r="AE5" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF5" s="45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG5" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
@@ -3988,13 +3987,13 @@
     </row>
     <row r="6" spans="1:37" s="27" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" s="28">
         <v>2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -4022,27 +4021,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W6" s="28"/>
       <c r="X6" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y6" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z6" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA6" s="28"/>
       <c r="AB6" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC6" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AD6" s="28"/>
       <c r="AE6" s="28"/>
@@ -4588,7 +4587,7 @@
   <dimension ref="A1:BS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4642,483 +4641,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" s="101"/>
+      <c r="BF1" s="101"/>
+      <c r="BG1" s="101"/>
+      <c r="BH1" s="101"/>
+      <c r="BI1" s="101"/>
+      <c r="BJ1" s="101"/>
+      <c r="BK1" s="101"/>
+      <c r="BL1" s="101"/>
+      <c r="BM1" s="101"/>
+      <c r="BN1" s="101"/>
+      <c r="BO1" s="101"/>
+      <c r="BP1" s="101"/>
+      <c r="BQ1" s="101"/>
+      <c r="BR1" s="101"/>
+      <c r="BS1" s="102"/>
+    </row>
+    <row r="2" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104"/>
+      <c r="B2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="98"/>
+      <c r="BK2" s="98"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="98"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="98"/>
+      <c r="BP2" s="98"/>
+      <c r="BQ2" s="98"/>
+      <c r="BR2" s="98"/>
+      <c r="BS2" s="99"/>
+    </row>
+    <row r="3" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104"/>
+      <c r="B3" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="92"/>
+      <c r="BH3" s="92"/>
+      <c r="BI3" s="92"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="94"/>
+    </row>
+    <row r="4" spans="1:71" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="105"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="99"/>
-      <c r="BD1" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
-      <c r="BR1" s="100"/>
-      <c r="BS1" s="101"/>
-    </row>
-    <row r="2" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="97"/>
-      <c r="BO2" s="97"/>
-      <c r="BP2" s="97"/>
-      <c r="BQ2" s="97"/>
-      <c r="BR2" s="97"/>
-      <c r="BS2" s="98"/>
-    </row>
-    <row r="3" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="88" t="s">
+      <c r="H4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="91"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="93"/>
-    </row>
-    <row r="4" spans="1:71" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="56" t="s">
+      <c r="J4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>132</v>
-      </c>
       <c r="O4" s="60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P4" s="51" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="R4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="56" t="s">
+      <c r="T4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="T4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>129</v>
-      </c>
       <c r="V4" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W4" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC4" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="Y4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z4" s="58" t="s">
+      <c r="AD4" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE4" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ4" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AR4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS4" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AX4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD4" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE4" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF4" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG4" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH4" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ4" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ4" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK4" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL4" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM4" s="56" t="s">
+      <c r="BK4" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL4" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM4" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS4" s="59" t="s">
         <v>130</v>
-      </c>
-      <c r="AN4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS4" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV4" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW4" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX4" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD4" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE4" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF4" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG4" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH4" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="BI4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="BK4" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL4" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM4" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN4" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS4" s="59" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5150,16 +5149,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N5" s="62">
         <v>13</v>
@@ -6720,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6752,181 +6751,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="81"/>
+      <c r="D1" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="82"/>
     </row>
     <row r="2" spans="1:36" s="27" customFormat="1" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="87" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
       <c r="P2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
       <c r="AJ2" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="27" customFormat="1" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="86" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="85"/>
+      <c r="O3" s="86"/>
       <c r="P3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="71" t="s">
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="87"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="88"/>
       <c r="AG3" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AH3" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AI3" s="43" t="s">
         <v>89</v>
       </c>
       <c r="AJ3" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="27" customFormat="1" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>142</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>80</v>
@@ -6971,7 +6970,7 @@
         <v>100</v>
       </c>
       <c r="W4" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X4" s="66" t="s">
         <v>102</v>
@@ -6986,78 +6985,112 @@
         <v>97</v>
       </c>
       <c r="AB4" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="35" t="s">
+      <c r="AD4" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AD4" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="AE4" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="AG4" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH4" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI4" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="AH4" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI4" s="36" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ4" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="27" customFormat="1" ht="25.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1</v>
+      </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
+      <c r="I5" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>0</v>
+      </c>
+      <c r="R5" s="45">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="45">
+        <v>0</v>
+      </c>
+      <c r="T5" s="45">
+        <v>20</v>
+      </c>
       <c r="U5" s="45"/>
       <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
+      <c r="W5" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="X5" s="45">
+        <v>-20</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>3.1</v>
+      </c>
       <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45" t="s">
-        <v>105</v>
-      </c>
+      <c r="AA5" s="45">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE5" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF5" s="45"/>
+        <v>209</v>
+      </c>
+      <c r="AF5" s="45" t="s">
+        <v>175</v>
+      </c>
       <c r="AG5" s="45"/>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
@@ -7065,43 +7098,63 @@
     </row>
     <row r="6" spans="1:36" s="27" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" s="49">
         <v>2</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
+        <v>178</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49">
+        <v>3.1</v>
+      </c>
+      <c r="R6" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S6" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T6" s="49">
+        <v>30</v>
+      </c>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="X6" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
@@ -7630,7 +7683,7 @@
   <dimension ref="A1:BS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BK14" sqref="BK14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7684,502 +7737,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" s="101"/>
+      <c r="BF1" s="101"/>
+      <c r="BG1" s="101"/>
+      <c r="BH1" s="101"/>
+      <c r="BI1" s="101"/>
+      <c r="BJ1" s="101"/>
+      <c r="BK1" s="101"/>
+      <c r="BL1" s="101"/>
+      <c r="BM1" s="101"/>
+      <c r="BN1" s="101"/>
+      <c r="BO1" s="101"/>
+      <c r="BP1" s="101"/>
+      <c r="BQ1" s="101"/>
+      <c r="BR1" s="101"/>
+      <c r="BS1" s="102"/>
+    </row>
+    <row r="2" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104"/>
+      <c r="B2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="98"/>
+      <c r="BK2" s="98"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="98"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="98"/>
+      <c r="BP2" s="98"/>
+      <c r="BQ2" s="98"/>
+      <c r="BR2" s="98"/>
+      <c r="BS2" s="99"/>
+    </row>
+    <row r="3" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104"/>
+      <c r="B3" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="92"/>
+      <c r="BH3" s="92"/>
+      <c r="BI3" s="92"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="94"/>
+    </row>
+    <row r="4" spans="1:71" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="105"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="99"/>
-      <c r="BD1" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
-      <c r="BR1" s="100"/>
-      <c r="BS1" s="101"/>
-    </row>
-    <row r="2" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="97"/>
-      <c r="BO2" s="97"/>
-      <c r="BP2" s="97"/>
-      <c r="BQ2" s="97"/>
-      <c r="BR2" s="97"/>
-      <c r="BS2" s="98"/>
-    </row>
-    <row r="3" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="88" t="s">
+      <c r="H4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="91"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="93"/>
-    </row>
-    <row r="4" spans="1:71" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="56" t="s">
+      <c r="J4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>132</v>
-      </c>
       <c r="O4" s="60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P4" s="51" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="R4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="56" t="s">
+      <c r="T4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="T4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>129</v>
-      </c>
       <c r="V4" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W4" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC4" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="Y4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z4" s="58" t="s">
+      <c r="AD4" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE4" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ4" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AR4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS4" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AX4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD4" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE4" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF4" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG4" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH4" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ4" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ4" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK4" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL4" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM4" s="56" t="s">
+      <c r="BK4" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL4" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM4" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO4" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ4" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS4" s="59" t="s">
         <v>130</v>
-      </c>
-      <c r="AN4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS4" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV4" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW4" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX4" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD4" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE4" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF4" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG4" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH4" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="BI4" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="BK4" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL4" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM4" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN4" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO4" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP4" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ4" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS4" s="59" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:71" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="62"/>
+      <c r="B5" s="54">
+        <v>300</v>
+      </c>
+      <c r="C5" s="54">
+        <v>2</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="54">
+        <v>4</v>
+      </c>
+      <c r="F5" s="54">
+        <v>5</v>
+      </c>
+      <c r="G5" s="54">
+        <v>6</v>
+      </c>
+      <c r="H5" s="54">
+        <v>7</v>
+      </c>
+      <c r="I5" s="54">
+        <v>8</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="N5" s="70">
+        <v>13</v>
+      </c>
       <c r="O5" s="55"/>
       <c r="P5" s="54"/>
       <c r="Q5" s="54"/>
@@ -9748,92 +9827,92 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+    <row r="3" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114"/>
+      <c r="B3" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="68" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="114"/>
+      <c r="B4" s="68" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="68" t="s">
+    <row r="5" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="114"/>
+      <c r="B5" s="68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
-      <c r="B4" s="68" t="s">
+    <row r="6" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="114"/>
+      <c r="B6" s="68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="68" t="s">
+    <row r="7" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="114"/>
+      <c r="B7" s="68" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="68" t="s">
+    <row r="8" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="114"/>
+      <c r="B8" s="68" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="68" t="s">
+    <row r="9" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114"/>
+      <c r="B9" s="68" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="68" t="s">
+    <row r="10" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114"/>
+      <c r="B10" s="68" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="68" t="s">
+    <row r="11" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="114"/>
+      <c r="B11" s="68" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="68" t="s">
+    <row r="12" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114"/>
+      <c r="B12" s="68" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
-      <c r="B11" s="68" t="s">
+    <row r="13" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="114" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="68" t="s">
+      <c r="B13" s="69" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+    <row r="14" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
+      <c r="B14" s="69" t="s">
         <v>200</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="69" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
